--- a/DOC/精英板 IO引脚分配表.xlsx
+++ b/DOC/精英板 IO引脚分配表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1786,7 +1786,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -2179,6 +2179,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2224,9 +2227,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2242,7 +2242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2316,6 +2316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2350,6 +2351,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2525,11 +2527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2544,26 +2546,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2574,17 +2576,17 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:7" ht="27">
       <c r="A4" s="14">
@@ -2760,7 +2762,7 @@
       <c r="A12" s="14">
         <v>100</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2884,7 +2886,7 @@
       <c r="F17" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="46" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2907,7 +2909,7 @@
       <c r="F18" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" ht="54">
       <c r="A19" s="14">
@@ -2936,7 +2938,7 @@
       <c r="A20" s="11">
         <v>46</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2957,7 +2959,7 @@
       <c r="A21" s="11">
         <v>47</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -3152,7 +3154,7 @@
       <c r="A30" s="11">
         <v>69</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3173,7 +3175,7 @@
       <c r="A31" s="11">
         <v>70</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -3278,7 +3280,7 @@
       <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4425,10 +4427,10 @@
       <c r="B92" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="D92" s="42"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="17" t="s">
         <v>28</v>
       </c>
@@ -4901,24 +4903,24 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="24" customHeight="1">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="38"/>
     </row>
     <row r="117" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A117" s="38"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="40"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4937,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
